--- a/Document/오브젝트 도구_강일구.xlsx
+++ b/Document/오브젝트 도구_강일구.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\210\Desktop\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\210\Desktop\Gorilla-box\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13005" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="113">
   <si>
     <t xml:space="preserve">오브젝트  </t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -151,10 +151,6 @@
   </si>
   <si>
     <t xml:space="preserve">오브젝트 사용 가능 표기 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3.3 UI에 표기 되어야 할 내용</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -456,7 +452,47 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">사이즈 </t>
+    <t>오브젝트 사용 키</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오브젝트를 사용하는 키를 안내</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">사용불가의 경우의 ui 표기와 가능한 경우의 표기를 다르게 함 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 범위내 유저 존재</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 보유 자원이 소모 자원 이상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI 룰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI에 표기 되어야 할 내용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">사용 가능 한 경우 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">사용이 불가능 한 경우 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 오브젝트 범위 만족하지 않음 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 보유 자원이 소모 자원 미만</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -560,7 +596,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -612,6 +648,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -620,6 +659,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -643,94 +688,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>22412</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>336177</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>147255</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="그림 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7373471" y="5647765"/>
-          <a:ext cx="5591735" cy="1626431"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>306430</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>54756</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>389633</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>11206</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="그림 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13619018" y="6105932"/>
-          <a:ext cx="2817439" cy="819303"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>27</xdr:row>
@@ -750,7 +707,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -765,6 +722,94 @@
         <a:xfrm>
           <a:off x="683559" y="5446059"/>
           <a:ext cx="3560373" cy="1304657"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>201706</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>47915</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7810500" y="5625353"/>
+          <a:ext cx="4773706" cy="1975327"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>170584</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>88395</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13649325" y="5524500"/>
+          <a:ext cx="4409209" cy="1783845"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1967,7 +2012,7 @@
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1981,8 +2026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:T92"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I45" sqref="I45"/>
+    <sheetView showGridLines="0" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C86" sqref="C86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2068,7 +2113,7 @@
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B7" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -2091,7 +2136,7 @@
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B8" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -2181,12 +2226,12 @@
       <c r="B12" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
+      <c r="C12" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
@@ -2206,12 +2251,12 @@
       <c r="B13" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
@@ -2229,10 +2274,10 @@
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
@@ -2310,10 +2355,10 @@
         <v>20</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
@@ -2333,16 +2378,16 @@
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B18" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>85</v>
-      </c>
       <c r="E18" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
@@ -2490,7 +2535,7 @@
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -2513,7 +2558,7 @@
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
@@ -2521,7 +2566,7 @@
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
       <c r="H26" s="10" t="s">
-        <v>31</v>
+        <v>108</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2736,10 +2781,10 @@
         <v>1</v>
       </c>
       <c r="C36" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
@@ -2766,7 +2811,7 @@
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
       <c r="H37" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2775,7 +2820,7 @@
       <c r="M37" s="9"/>
       <c r="N37" s="9"/>
       <c r="O37" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P37" s="9"/>
       <c r="Q37" s="9"/>
@@ -2817,13 +2862,13 @@
       <c r="I39" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="J39" s="19" t="s">
+      <c r="J39" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="K39" s="19"/>
-      <c r="L39" s="19"/>
-      <c r="M39" s="19"/>
-      <c r="N39" s="19"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="20"/>
+      <c r="M39" s="20"/>
+      <c r="N39" s="20"/>
       <c r="O39" s="9"/>
       <c r="P39" s="9"/>
       <c r="Q39" s="9"/>
@@ -2833,7 +2878,7 @@
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
@@ -2846,13 +2891,13 @@
       <c r="I40" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="J40" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="K40" s="18"/>
-      <c r="L40" s="18"/>
-      <c r="M40" s="18"/>
-      <c r="N40" s="18"/>
+      <c r="J40" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="K40" s="19"/>
+      <c r="L40" s="19"/>
+      <c r="M40" s="19"/>
+      <c r="N40" s="19"/>
       <c r="O40" s="9"/>
       <c r="P40" s="9"/>
       <c r="Q40" s="9"/>
@@ -2873,13 +2918,13 @@
       <c r="I41" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="J41" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="K41" s="18"/>
-      <c r="L41" s="18"/>
-      <c r="M41" s="18"/>
-      <c r="N41" s="18"/>
+      <c r="J41" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="K41" s="19"/>
+      <c r="L41" s="19"/>
+      <c r="M41" s="19"/>
+      <c r="N41" s="19"/>
       <c r="O41" s="9"/>
       <c r="P41" s="9"/>
       <c r="Q41" s="9"/>
@@ -2889,7 +2934,7 @@
     </row>
     <row r="42" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B42" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
@@ -2902,13 +2947,13 @@
       <c r="I42" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="J42" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="K42" s="18"/>
-      <c r="L42" s="18"/>
-      <c r="M42" s="18"/>
-      <c r="N42" s="18"/>
+      <c r="J42" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="K42" s="19"/>
+      <c r="L42" s="19"/>
+      <c r="M42" s="19"/>
+      <c r="N42" s="19"/>
       <c r="O42" s="9"/>
       <c r="P42" s="9"/>
       <c r="Q42" s="9"/>
@@ -2918,20 +2963,26 @@
     </row>
     <row r="43" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B43" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
       <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="9"/>
-      <c r="K43" s="9"/>
-      <c r="L43" s="9"/>
-      <c r="M43" s="9"/>
-      <c r="N43" s="9"/>
+      <c r="H43" s="21">
+        <v>4</v>
+      </c>
+      <c r="I43" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="J43" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="K43" s="19"/>
+      <c r="L43" s="19"/>
+      <c r="M43" s="19"/>
+      <c r="N43" s="19"/>
       <c r="O43" s="9"/>
       <c r="P43" s="9"/>
       <c r="Q43" s="9"/>
@@ -2941,7 +2992,7 @@
     </row>
     <row r="44" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B44" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
@@ -2964,7 +3015,7 @@
     </row>
     <row r="45" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B45" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
@@ -2972,7 +3023,7 @@
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
       <c r="H45" s="9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2989,7 +3040,7 @@
     </row>
     <row r="46" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B46" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
@@ -3012,14 +3063,16 @@
     </row>
     <row r="47" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B47" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
       <c r="F47" s="9"/>
       <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
+      <c r="H47" s="10" t="s">
+        <v>107</v>
+      </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
@@ -3035,14 +3088,13 @@
     </row>
     <row r="48" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B48" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
       <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
@@ -3065,7 +3117,9 @@
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
+      <c r="H49" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
@@ -3081,14 +3135,16 @@
     </row>
     <row r="50" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B50" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
       <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
+      <c r="H50" s="22" t="s">
+        <v>105</v>
+      </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
@@ -3104,14 +3160,16 @@
     </row>
     <row r="51" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B51" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
       <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
+      <c r="H51" s="22" t="s">
+        <v>106</v>
+      </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
@@ -3127,7 +3185,7 @@
     </row>
     <row r="52" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B52" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
@@ -3155,7 +3213,9 @@
       <c r="E53" s="9"/>
       <c r="F53" s="9"/>
       <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
+      <c r="H53" s="10" t="s">
+        <v>110</v>
+      </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
@@ -3176,7 +3236,9 @@
       <c r="E54" s="9"/>
       <c r="F54" s="9"/>
       <c r="G54" s="9"/>
-      <c r="H54" s="9"/>
+      <c r="H54" s="22" t="s">
+        <v>111</v>
+      </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
@@ -3192,10 +3254,12 @@
     </row>
     <row r="55" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B55" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G55" s="9"/>
-      <c r="H55" s="9"/>
+      <c r="H55" s="22" t="s">
+        <v>112</v>
+      </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
@@ -3226,7 +3290,7 @@
     </row>
     <row r="57" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H57" s="9"/>
       <c r="I57" s="9"/>
@@ -3244,7 +3308,7 @@
     </row>
     <row r="58" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G58" s="9"/>
       <c r="H58" s="9"/>
@@ -3263,7 +3327,7 @@
     </row>
     <row r="59" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G59" s="9"/>
       <c r="H59" s="9"/>
@@ -3282,7 +3346,7 @@
     </row>
     <row r="60" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G60" s="9"/>
       <c r="H60" s="9"/>
@@ -3301,7 +3365,7 @@
     </row>
     <row r="61" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G61" s="9"/>
       <c r="H61" s="9"/>
@@ -3320,7 +3384,7 @@
     </row>
     <row r="62" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G62" s="9"/>
       <c r="H62" s="9"/>
@@ -3339,7 +3403,7 @@
     </row>
     <row r="63" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G63" s="9"/>
       <c r="H63" s="9"/>
@@ -3390,7 +3454,7 @@
     </row>
     <row r="82" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B82" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C82" s="9"/>
       <c r="D82" s="9"/>
@@ -3406,19 +3470,19 @@
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B84" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C84" s="17"/>
-      <c r="D84" s="17"/>
-      <c r="E84" s="17"/>
-      <c r="F84" s="17"/>
+        <v>77</v>
+      </c>
+      <c r="C84" s="18"/>
+      <c r="D84" s="18"/>
+      <c r="E84" s="18"/>
+      <c r="F84" s="18"/>
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B85" s="12"/>
-      <c r="C85" s="17"/>
-      <c r="D85" s="17"/>
-      <c r="E85" s="17"/>
-      <c r="F85" s="17"/>
+      <c r="C85" s="18"/>
+      <c r="D85" s="18"/>
+      <c r="E85" s="18"/>
+      <c r="F85" s="18"/>
     </row>
     <row r="86" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F86" s="9"/>
@@ -3441,7 +3505,7 @@
     <row r="88" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B88" s="13"/>
       <c r="C88" s="13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D88" s="13"/>
       <c r="E88" s="6"/>
@@ -3476,7 +3540,7 @@
       <c r="F92" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="C84:F84"/>
     <mergeCell ref="C85:F85"/>
     <mergeCell ref="J42:N42"/>
@@ -3485,6 +3549,7 @@
     <mergeCell ref="J39:N39"/>
     <mergeCell ref="J40:N40"/>
     <mergeCell ref="J41:N41"/>
+    <mergeCell ref="J43:N43"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3497,8 +3562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L62"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3514,31 +3579,31 @@
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>59</v>
-      </c>
       <c r="E6" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="J6" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="K6" s="20"/>
+      <c r="L6" t="s">
         <v>61</v>
-      </c>
-      <c r="J6" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="K6" s="19"/>
-      <c r="L6" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
@@ -3546,21 +3611,21 @@
         <v>19</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D7" s="4">
         <v>50</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="J7" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="K7" s="19"/>
+        <v>62</v>
+      </c>
+      <c r="J7" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="K7" s="20"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="4"/>
@@ -3568,10 +3633,10 @@
       <c r="D8" s="4"/>
       <c r="E8" s="6"/>
       <c r="F8" s="4"/>
-      <c r="J8" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="K8" s="19"/>
+      <c r="J8" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="K8" s="20"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="4"/>
@@ -3590,85 +3655,85 @@
     <row r="13" spans="2:12" ht="9.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B62" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -3701,7 +3766,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
@@ -3711,6 +3778,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x010100F643F22955DFBC4D9DD3A7624601EBD1" ma:contentTypeVersion="6" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="0a3e87a620d9dfab8666112917a1e9a4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8050024c-c185-454c-b2be-1c9e4408ac71" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8bedd63959bada6aad395817f67cc735" ns2:_="">
     <xsd:import namespace="8050024c-c185-454c-b2be-1c9e4408ac71"/>
@@ -3868,22 +3950,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51DC5270-3A49-4E47-B3D8-40D2514AA47E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62F458C0-3D22-4ABC-AAB4-0F8541503D9A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{719F247F-B8DA-45D9-BB56-878B7DA84864}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3899,21 +3983,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62F458C0-3D22-4ABC-AAB4-0F8541503D9A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51DC5270-3A49-4E47-B3D8-40D2514AA47E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Document/오브젝트 도구_강일구.xlsx
+++ b/Document/오브젝트 도구_강일구.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\210\Desktop\Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\210\Desktop\Gorilla-box\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1981,8 +1981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:T92"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I45" sqref="I45"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3711,6 +3711,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x010100F643F22955DFBC4D9DD3A7624601EBD1" ma:contentTypeVersion="6" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="0a3e87a620d9dfab8666112917a1e9a4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8050024c-c185-454c-b2be-1c9e4408ac71" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8bedd63959bada6aad395817f67cc735" ns2:_="">
     <xsd:import namespace="8050024c-c185-454c-b2be-1c9e4408ac71"/>
@@ -3868,22 +3883,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51DC5270-3A49-4E47-B3D8-40D2514AA47E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62F458C0-3D22-4ABC-AAB4-0F8541503D9A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{719F247F-B8DA-45D9-BB56-878B7DA84864}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3899,21 +3916,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62F458C0-3D22-4ABC-AAB4-0F8541503D9A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51DC5270-3A49-4E47-B3D8-40D2514AA47E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Document/오브젝트 도구_강일구.xlsx
+++ b/Document/오브젝트 도구_강일구.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13005" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13005"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="1" r:id="rId1"/>
@@ -1887,8 +1887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E13"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1981,8 +1981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:T92"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView showGridLines="0" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O49" sqref="O49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3711,12 +3711,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -3725,7 +3719,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x010100F643F22955DFBC4D9DD3A7624601EBD1" ma:contentTypeVersion="6" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="0a3e87a620d9dfab8666112917a1e9a4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8050024c-c185-454c-b2be-1c9e4408ac71" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8bedd63959bada6aad395817f67cc735" ns2:_="">
     <xsd:import namespace="8050024c-c185-454c-b2be-1c9e4408ac71"/>
@@ -3883,16 +3877,13 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51DC5270-3A49-4E47-B3D8-40D2514AA47E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62F458C0-3D22-4ABC-AAB4-0F8541503D9A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -3900,7 +3891,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{719F247F-B8DA-45D9-BB56-878B7DA84864}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3916,4 +3907,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51DC5270-3A49-4E47-B3D8-40D2514AA47E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Document/오브젝트 도구_강일구.xlsx
+++ b/Document/오브젝트 도구_강일구.xlsx
@@ -19,6 +19,7 @@
     <sheet name="흐름도" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1888,7 +1889,7 @@
   <dimension ref="B2:E13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:E7"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3711,12 +3712,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3878,15 +3876,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62F458C0-3D22-4ABC-AAB4-0F8541503D9A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51DC5270-3A49-4E47-B3D8-40D2514AA47E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3910,10 +3912,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51DC5270-3A49-4E47-B3D8-40D2514AA47E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{62F458C0-3D22-4ABC-AAB4-0F8541503D9A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>